--- a/Data/youremail_FinYahoo_Day_Month_Year.xlsx
+++ b/Data/youremail_FinYahoo_Day_Month_Year.xlsx
@@ -41,10 +41,10 @@
     <x:t>S&amp;P 500</x:t>
   </x:si>
   <x:si>
-    <x:t>4,205.45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+54.17</x:t>
+    <x:t>4,282.37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+61.35</x:t>
   </x:si>
   <x:si>
     <x:t>DJI</x:t>
@@ -53,10 +53,10 @@
     <x:t>Dow Jones Industrial Average</x:t>
   </x:si>
   <x:si>
-    <x:t>33,093.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+328.64</x:t>
+    <x:t>33,762.76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+701.19</x:t>
   </x:si>
   <x:si>
     <x:t>IXIC</x:t>
@@ -65,10 +65,10 @@
     <x:t>NASDAQ Composite</x:t>
   </x:si>
   <x:si>
-    <x:t>12,975.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+277.59</x:t>
+    <x:t>13,240.77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+139.78</x:t>
   </x:si>
   <x:si>
     <x:t>NYA</x:t>
@@ -77,34 +77,34 @@
     <x:t>NYSE COMPOSITE (DJ)</x:t>
   </x:si>
   <x:si>
-    <x:t>15,078.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+102.69</x:t>
+    <x:t>15,345.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+314.11</x:t>
   </x:si>
   <x:si>
     <x:t>XAX</x:t>
   </x:si>
   <x:si>
-    <x:t>NYSE AMEX COMPOSITE INDEX(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,910.65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.62</x:t>
+    <x:t>NYSE AMEX COMPOSITE INDEX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,037.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+92.41</x:t>
   </x:si>
   <x:si>
     <x:t>BUK100P</x:t>
   </x:si>
   <x:si>
-    <x:t>Cboe UK 100(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>760.81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.14</x:t>
+    <x:t>Cboe UK 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>760.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+11.47</x:t>
   </x:si>
   <x:si>
     <x:t>RUT</x:t>
@@ -113,10 +113,10 @@
     <x:t>Russell 2000</x:t>
   </x:si>
   <x:si>
-    <x:t>1,773.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+18.42</x:t>
+    <x:t>1,830.91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+62.97</x:t>
   </x:si>
   <x:si>
     <x:t>VIX</x:t>
@@ -125,22 +125,22 @@
     <x:t>CBOE Volatility Index(Negative)</x:t>
   </x:si>
   <x:si>
-    <x:t>17.38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-0.08</x:t>
+    <x:t>14.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1.05</x:t>
   </x:si>
   <x:si>
     <x:t>FTSE</x:t>
   </x:si>
   <x:si>
-    <x:t>FTSE 100(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,620.48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-6.72</x:t>
+    <x:t>FTSE 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,607.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+117.01</x:t>
   </x:si>
   <x:si>
     <x:t>GDAXI</x:t>
@@ -149,58 +149,58 @@
     <x:t>DAX PERFORMANCE-INDEX</x:t>
   </x:si>
   <x:si>
-    <x:t>15,982.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+29.36</x:t>
+    <x:t>16,051.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+197.57</x:t>
   </x:si>
   <x:si>
     <x:t>FCHI</x:t>
   </x:si>
   <x:si>
-    <x:t>CAC 40(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,269.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-33.86</x:t>
+    <x:t>CAC 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,270.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+133.26</x:t>
   </x:si>
   <x:si>
     <x:t>STOXX50E</x:t>
   </x:si>
   <x:si>
-    <x:t>ESTX 50 PREUR(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,319.71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-0.30</x:t>
+    <x:t>ESTX 50 PREUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,323.52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+65.91</x:t>
   </x:si>
   <x:si>
     <x:t>N100</x:t>
   </x:si>
   <x:si>
-    <x:t>Euronext 100 Index(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,350.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-3.37</x:t>
+    <x:t>Euronext 100 Index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,351.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+22.99</x:t>
   </x:si>
   <x:si>
     <x:t>BFX</x:t>
   </x:si>
   <x:si>
-    <x:t>BEL 20(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,633.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-7.88</x:t>
+    <x:t>BEL 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,632.83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+80.91</x:t>
   </x:si>
   <x:si>
     <x:t>IMOEX.ME</x:t>
@@ -221,10 +221,10 @@
     <x:t>Nikkei 225</x:t>
   </x:si>
   <x:si>
-    <x:t>31,328.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+94.62</x:t>
+    <x:t>31,524.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+376.21</x:t>
   </x:si>
   <x:si>
     <x:t>HSI</x:t>
@@ -233,10 +233,10 @@
     <x:t>HANG SENG INDEX</x:t>
   </x:si>
   <x:si>
-    <x:t>18,622.32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+71.21</x:t>
+    <x:t>18,949.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+733.03</x:t>
   </x:si>
   <x:si>
     <x:t>000001.SS</x:t>
@@ -245,10 +245,10 @@
     <x:t>SSE Composite Index</x:t>
   </x:si>
   <x:si>
-    <x:t>3,224.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+2.76</x:t>
+    <x:t>3,230.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+25.43</x:t>
   </x:si>
   <x:si>
     <x:t>399001.SZ</x:t>
@@ -257,10 +257,10 @@
     <x:t>Shenzhen Index</x:t>
   </x:si>
   <x:si>
-    <x:t>10,869.55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+47.46</x:t>
+    <x:t>10,998.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+162.18</x:t>
   </x:si>
   <x:si>
     <x:t>STI</x:t>
@@ -269,34 +269,34 @@
     <x:t>STI Index</x:t>
   </x:si>
   <x:si>
-    <x:t>3,196.64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1.42</x:t>
+    <x:t>3,166.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+7.50</x:t>
   </x:si>
   <x:si>
     <x:t>AXJO</x:t>
   </x:si>
   <x:si>
-    <x:t>S&amp;P/ASX 200(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,209.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-8.10</x:t>
+    <x:t>S&amp;P/ASX 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,145.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+34.30</x:t>
   </x:si>
   <x:si>
     <x:t>AORD</x:t>
   </x:si>
   <x:si>
-    <x:t>ALL ORDINARIES(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,387.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-7.80</x:t>
+    <x:t>ALL ORDINARIES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,331.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+40.50</x:t>
   </x:si>
   <x:si>
     <x:t>BSESN</x:t>
@@ -305,10 +305,10 @@
     <x:t>S&amp;P BSE SENSEX</x:t>
   </x:si>
   <x:si>
-    <x:t>62,891.68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+45.30</x:t>
+    <x:t>62,547.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+118.57</x:t>
   </x:si>
   <x:si>
     <x:t>JKSE</x:t>
@@ -317,10 +317,10 @@
     <x:t>IDX COMPOSITE(Negative)</x:t>
   </x:si>
   <x:si>
-    <x:t>6,658.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-22.94</x:t>
+    <x:t>6,633.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-3.16</x:t>
   </x:si>
   <x:si>
     <x:t>KLSE</x:t>
@@ -329,10 +329,10 @@
     <x:t>FTSE Bursa Malaysia KLCI(Negative)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,398.70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-6.23</x:t>
+    <x:t>1,381.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1.75</x:t>
   </x:si>
   <x:si>
     <x:t>NZ50</x:t>
@@ -341,10 +341,10 @@
     <x:t>S&amp;P/NZX 50 INDEX GROSS ( GROSS(Negative)</x:t>
   </x:si>
   <x:si>
-    <x:t>11,878.71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-56.94</x:t>
+    <x:t>11,880.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-35.23</x:t>
   </x:si>
   <x:si>
     <x:t>KS11</x:t>
@@ -353,22 +353,22 @@
     <x:t>KOSPI Composite Index</x:t>
   </x:si>
   <x:si>
-    <x:t>2,585.52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+26.71</x:t>
+    <x:t>2,601.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+32.19</x:t>
   </x:si>
   <x:si>
     <x:t>TWII</x:t>
   </x:si>
   <x:si>
-    <x:t>TSEC weighted index(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16,622.74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-13.56</x:t>
+    <x:t>TSEC weighted index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,706.91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+194.26</x:t>
   </x:si>
   <x:si>
     <x:t>GSPTSE</x:t>
@@ -377,22 +377,22 @@
     <x:t>S&amp;P/TSX Composite index</x:t>
   </x:si>
   <x:si>
-    <x:t>19,967.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+47.64</x:t>
+    <x:t>20,024.63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+352.38</x:t>
   </x:si>
   <x:si>
     <x:t>BVSP</x:t>
   </x:si>
   <x:si>
-    <x:t>IBOVESPA(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110,333.40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-572.11</x:t>
+    <x:t>IBOVESPA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112,558.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1,993.49</x:t>
   </x:si>
   <x:si>
     <x:t>MXX</x:t>
@@ -401,10 +401,10 @@
     <x:t>IPC MEXICO</x:t>
   </x:si>
   <x:si>
-    <x:t>54,212.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+187.22</x:t>
+    <x:t>53,232.71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+508.68</x:t>
   </x:si>
   <x:si>
     <x:t>IPSA</x:t>
@@ -437,10 +437,10 @@
     <x:t>TA-125(Negative)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,765.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-6.40</x:t>
+    <x:t>1,728.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-18.29</x:t>
   </x:si>
   <x:si>
     <x:t>CASE30</x:t>
@@ -449,22 +449,22 @@
     <x:t>EGX 30 Price Return Index</x:t>
   </x:si>
   <x:si>
-    <x:t>17,211.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+80.30</x:t>
+    <x:t>17,533.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+37.50</x:t>
   </x:si>
   <x:si>
     <x:t>JN0U.JO</x:t>
   </x:si>
   <x:si>
-    <x:t>Top 40 USD Net TRI Index(Negative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,881.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-29.68</x:t>
+    <x:t>Top 40 USD Net TRI Index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,967.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+97.00</x:t>
   </x:si>
 </x:sst>
 </file>
